--- a/2. Hardware/2. 设备清单-中控系统.xlsx
+++ b/2. Hardware/2. 设备清单-中控系统.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. Project\2023\8. 数字化中控室\Open sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. Project\2023\8. 数字化中控室\Clone\line-center\2. Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ABE471-FFB9-456D-83D8-578B8DE858CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4F18C2-6B3A-4A19-9A5B-D30B70F97815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="25580" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7930" yWindow="1560" windowWidth="25580" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="型号" sheetId="15" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>主机</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,14 @@
   </si>
   <si>
     <t>中控室内设备清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大屏电视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redmi 85寸 OLED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -338,10 +346,10 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -353,8 +361,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -676,7 +684,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -715,7 +723,7 @@
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -729,7 +737,7 @@
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -743,10 +751,10 @@
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>3</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -757,7 +765,7 @@
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -771,7 +779,7 @@
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -785,7 +793,7 @@
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -796,16 +804,24 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="14">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -820,7 +836,7 @@
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>3</v>
       </c>
       <c r="C11" s="8" t="s">
